--- a/Algorithms_Master_list.xlsx
+++ b/Algorithms_Master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\40AlgoQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1AE583-4B22-47C4-9C36-7201CC099F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC8942-72E9-44DA-B799-E364D8632D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BEDEAB01-10D7-4BBD-A50B-D59D4907950D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -296,12 +296,36 @@
   <si>
     <t>Realtime_Problem_Leet/GPT</t>
   </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>08.09.2024</t>
+  </si>
+  <si>
+    <t>09.09.2024</t>
+  </si>
+  <si>
+    <t>10.09.2024</t>
+  </si>
+  <si>
+    <t>11.09.2024</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +345,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E72BE3-9FC8-4B8F-B05A-4A043A56664F}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,10 +758,13 @@
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -750,8 +783,14 @@
       <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -761,11 +800,23 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -775,11 +826,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -789,11 +846,17 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -803,11 +866,17 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -820,8 +889,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -834,8 +905,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -848,8 +921,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -862,8 +937,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -876,8 +953,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -890,8 +969,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -904,8 +985,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -918,8 +1001,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -932,8 +1017,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -946,8 +1033,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -960,8 +1049,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -974,8 +1065,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -988,8 +1081,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1002,8 +1097,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1016,8 +1113,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1030,8 +1129,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1044,8 +1145,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1058,8 +1161,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1072,8 +1177,10 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1086,8 +1193,10 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1100,8 +1209,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1114,8 +1225,10 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1128,8 +1241,10 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1142,8 +1257,10 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1156,8 +1273,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1170,8 +1289,10 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1184,8 +1305,10 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1198,8 +1321,10 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1212,8 +1337,10 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1226,8 +1353,10 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1240,8 +1369,10 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1254,8 +1385,10 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1268,8 +1401,10 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1282,8 +1417,10 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1296,8 +1433,10 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1310,8 +1449,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1324,8 +1465,10 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1338,8 +1481,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1352,8 +1497,11 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/Algorithms_Master_list.xlsx
+++ b/Algorithms_Master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\40AlgoQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC8942-72E9-44DA-B799-E364D8632D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279770D6-BE92-4DA9-A433-C4A832B57BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BEDEAB01-10D7-4BBD-A50B-D59D4907950D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Realtime_Problem_Leet/GPT</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Target</t>
@@ -750,7 +747,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,10 +781,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -801,19 +798,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,14 +824,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -847,14 +850,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -867,14 +876,20 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -886,11 +901,21 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -902,11 +927,21 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
